--- a/Win32/Binaries/Table/gift.xlsx
+++ b/Win32/Binaries/Table/gift.xlsx
@@ -11,12 +11,12 @@
     <sheet name="辅助表" sheetId="3" r:id="rId2"/>
     <sheet name="注释" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="115">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>随机4级玉器包</t>
-  </si>
-  <si>
-    <t>随机4级玉器包</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -297,27 +294,9 @@
     <t>绝世名伶礼包</t>
   </si>
   <si>
-    <t>初露头角战力礼包</t>
-  </si>
-  <si>
-    <t>无坚不摧战力礼包</t>
-  </si>
-  <si>
-    <t>所向无敌战力礼包</t>
-  </si>
-  <si>
-    <t>每日玉器优惠礼包</t>
-  </si>
-  <si>
     <t>优秀后勤礼包</t>
   </si>
   <si>
-    <t>期待周五大礼包</t>
-  </si>
-  <si>
-    <t>幸福周六大礼包</t>
-  </si>
-  <si>
     <t>纳宗宗主礼包</t>
   </si>
   <si>
@@ -379,6 +358,50 @@
   </si>
   <si>
     <t>awardcontentshopID20</t>
+  </si>
+  <si>
+    <t>每日玉器礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所向无敌礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初露头角礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无坚不摧礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周五大礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周六大礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4级玉器包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提bug礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提bug高级礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提建议礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提建议高级礼包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -729,10 +752,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG30"/>
+  <dimension ref="A1:AG33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -748,103 +771,103 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="U1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AA1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AB1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AC1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AD1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AE1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AF1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AG1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.15">
@@ -852,13 +875,13 @@
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
         <v>29</v>
@@ -888,64 +911,64 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AC2" t="s">
         <v>99</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
         <v>100</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>103</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
@@ -953,7 +976,7 @@
         <v>9101</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1566,10 +1589,10 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>9115</v>
+        <v>9201</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -1605,12 +1628,12 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>911501</v>
+        <v>920101</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>9201</v>
+        <v>9202</v>
       </c>
       <c r="B18" t="s">
         <v>79</v>
@@ -1649,12 +1672,12 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>920101</v>
+        <v>920201</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>9202</v>
+        <v>9203</v>
       </c>
       <c r="B19" t="s">
         <v>80</v>
@@ -1693,12 +1716,12 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>920201</v>
+        <v>920301</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>9203</v>
+        <v>9204</v>
       </c>
       <c r="B20" t="s">
         <v>81</v>
@@ -1737,15 +1760,15 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>920301</v>
+        <v>920401</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>9204</v>
+        <v>9301</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1781,15 +1804,15 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>920401</v>
+        <v>930101</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>9301</v>
+        <v>9302</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1825,15 +1848,15 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>930101</v>
+        <v>930201</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>9302</v>
+        <v>9303</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1869,21 +1892,21 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>930201</v>
+        <v>930301</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>9303</v>
+        <v>9401</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>9403</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1913,21 +1936,21 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>930301</v>
+        <v>940101</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>9401</v>
+        <v>9402</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>9403</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1957,15 +1980,15 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>940101</v>
+        <v>940201</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>9402</v>
+        <v>9501</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2001,15 +2024,15 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>940201</v>
+        <v>950101</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>9501</v>
+        <v>9502</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2045,15 +2068,15 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>950101</v>
+        <v>950201</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>9502</v>
+        <v>9503</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2089,15 +2112,15 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>950201</v>
+        <v>950301</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>9503</v>
+        <v>9403</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2133,15 +2156,15 @@
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>950301</v>
+        <v>940301</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>9403</v>
+        <v>9601</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2177,7 +2200,139 @@
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>940301</v>
+        <v>960101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>9602</v>
+      </c>
+      <c r="B31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>960201</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>9603</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>960301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>9604</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>960401</v>
       </c>
     </row>
   </sheetData>
@@ -2347,64 +2502,64 @@
         <v>37</v>
       </c>
       <c r="N2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" t="s">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
+      <c r="V2" t="s">
         <v>92</v>
       </c>
-      <c r="P2" t="s">
+      <c r="W2" t="s">
         <v>93</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="X2" t="s">
         <v>94</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Y2" t="s">
         <v>95</v>
       </c>
-      <c r="S2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="T2" t="s">
+      <c r="AA2" t="s">
         <v>97</v>
       </c>
-      <c r="U2" t="s">
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="V2" t="s">
+      <c r="AC2" t="s">
         <v>99</v>
       </c>
-      <c r="W2" t="s">
+      <c r="AD2" t="s">
         <v>100</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AE2" t="s">
         <v>101</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AF2" t="s">
         <v>102</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AG2" t="s">
         <v>103</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.15">
@@ -3627,7 +3782,7 @@
         <v>9403</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C30">
         <v>1</v>
